--- a/docs/ValueSet-nursing-problem-valueset.xlsx
+++ b/docs/ValueSet-nursing-problem-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T02:33:16+00:00</t>
+    <t>2025-11-23T21:00:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-problem-valueset.xlsx
+++ b/docs/ValueSet-nursing-problem-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T21:00:20+00:00</t>
+    <t>2025-11-23T22:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-problem-valueset.xlsx
+++ b/docs/ValueSet-nursing-problem-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T00:15:25+00:00</t>
+    <t>2025-11-28T01:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-problem-valueset.xlsx
+++ b/docs/ValueSet-nursing-problem-valueset.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,16 +49,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:24:36+00:00</t>
+    <t>2025-12-26T14:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +76,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Value set for nursing problems and diagnoses</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -84,22 +91,40 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>is-a</t>
-  </si>
-  <si>
-    <t>409586006</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>129839007</t>
+  </si>
+  <si>
+    <t>At risk for falls</t>
+  </si>
+  <si>
+    <t>300893006</t>
+  </si>
+  <si>
+    <t>Nutritional finding</t>
+  </si>
+  <si>
+    <t>22253000</t>
+  </si>
+  <si>
+    <t>Pain</t>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>risk-falls</t>
+  </si>
+  <si>
+    <t>Risk of falls</t>
+  </si>
+  <si>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes</t>
   </si>
 </sst>
 </file>
@@ -295,54 +320,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -352,7 +381,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -364,40 +393,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-nursing-problem-valueset.xlsx
+++ b/docs/ValueSet-nursing-problem-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:13:58+00:00</t>
+    <t>2025-12-26T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-problem-valueset.xlsx
+++ b/docs/ValueSet-nursing-problem-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
